--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_130.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_130.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.425</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:15.600000', '0:00:24.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:08.300000', '0:00:12.960000'), ('0:00:00.780000', '0:00:05.260000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[('0:02:22.380000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:00:01.680000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:17.360000', '0:00:20.120000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[('0:01:37.720000', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:11.060000', '0:00:17.280000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.92, 22.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(26.987959, 33.059977)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
